--- a/libros.xlsx
+++ b/libros.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>kgerkg</t>
+  </si>
+  <si>
+    <t>adios</t>
+  </si>
+  <si>
+    <t>fgsgfsg</t>
+  </si>
+  <si>
+    <t>gdfgfdg</t>
   </si>
 </sst>
 </file>
